--- a/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_test_2016_2019/Results-ck-training-model.xlsx
+++ b/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_test_2016_2019/Results-ck-training-model.xlsx
@@ -142,28 +142,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>54.893788687611142</v>
+        <v>55.696362090774983</v>
       </c>
       <c r="C2" s="0">
-        <v>0.48159154651404895</v>
+        <v>0.47699418615428602</v>
       </c>
       <c r="D2" s="0">
-        <v>37.231477230543128</v>
+        <v>37.94723128054742</v>
       </c>
       <c r="E2" s="0">
-        <v>0.42374274190056183</v>
+        <v>0.43367471640083499</v>
       </c>
       <c r="F2" s="0">
-        <v>0.65095525337811189</v>
+        <v>0.65853983660886828</v>
       </c>
       <c r="G2" s="0">
-        <v>0.5870417773821095</v>
+        <v>0.6030176210603817</v>
       </c>
       <c r="H2" s="0">
-        <v>0.57625725809943817</v>
+        <v>0.56632528359916501</v>
       </c>
       <c r="I2" s="0">
-        <v>0.7593581601364856</v>
+        <v>0.75275452343933613</v>
       </c>
     </row>
     <row r="3">
@@ -171,28 +171,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>53.714655924304445</v>
+        <v>55.800885098409537</v>
       </c>
       <c r="C3" s="0">
-        <v>0.47124683567148301</v>
+        <v>0.47788934097390934</v>
       </c>
       <c r="D3" s="0">
-        <v>37.027281459639319</v>
+        <v>38.844992393528948</v>
       </c>
       <c r="E3" s="0">
-        <v>0.40573405028950055</v>
+        <v>0.4353039617405825</v>
       </c>
       <c r="F3" s="0">
-        <v>0.63697256635549115</v>
+        <v>0.65977569047410534</v>
       </c>
       <c r="G3" s="0">
-        <v>0.58382215094765411</v>
+        <v>0.6172838995835308</v>
       </c>
       <c r="H3" s="0">
-        <v>0.5942659497104994</v>
+        <v>0.5646960382594175</v>
       </c>
       <c r="I3" s="0">
-        <v>0.77090166703858742</v>
+        <v>0.75214038542848971</v>
       </c>
     </row>
     <row r="4">
@@ -200,28 +200,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>54.691065042618945</v>
+        <v>56.293313910375453</v>
       </c>
       <c r="C4" s="0">
-        <v>0.47981302118284347</v>
+        <v>0.48210659451768267</v>
       </c>
       <c r="D4" s="0">
-        <v>37.576714136854321</v>
+        <v>38.528877680908238</v>
       </c>
       <c r="E4" s="0">
-        <v>0.42061874353026124</v>
+        <v>0.44302075806897917</v>
       </c>
       <c r="F4" s="0">
-        <v>0.64855126515200112</v>
+        <v>0.66559804542154355</v>
       </c>
       <c r="G4" s="0">
-        <v>0.59248524893291232</v>
+        <v>0.6122605359400165</v>
       </c>
       <c r="H4" s="0">
-        <v>0.5793812564697387</v>
+        <v>0.55697924193102089</v>
       </c>
       <c r="I4" s="0">
-        <v>0.76149140710639629</v>
+        <v>0.74809783802052565</v>
       </c>
     </row>
   </sheetData>
